--- a/QA/QA_matrix.xlsx
+++ b/QA/QA_matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robcc\Projects\trikemain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robcc\Projects\trikemain\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FCB8CA-8E78-438A-ABE6-87E31F3A047D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763BD840-9CAA-4F74-A2E0-9D5F80CA60CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{177E1BE2-7762-44D2-BE07-4D3F7764E22D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Validation Testing</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>verify all relevant files</t>
+  </si>
+  <si>
+    <t>check for copyright issues</t>
+  </si>
+  <si>
+    <t>make sure all local directories are synced</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
   <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.6"/>
@@ -629,6 +638,21 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
